--- a/analytikI/vystup.xlsx
+++ b/analytikI/vystup.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NovyHarok" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Ahoj" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,14 +28,6 @@
     <font>
       <b val="1"/>
       <color rgb="0000FF00"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0000FFCC"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0044FFCC"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,11 +50,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -428,77 +418,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Meno</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Vek</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Vyska</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-      <c r="C2" t="n">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C3" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Emanuel</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>45</v>
-      </c>
-      <c r="C4" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -509,19 +436,200 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dáta2</t>
-        </is>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Meno</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Vek</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Pohlavie</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>25</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13">
+        <f>SUM(B2:B12)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/analytikI/vystup.xlsx
+++ b/analytikI/vystup.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ahoj" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,7 +56,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,10 +437,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -455,11 +456,6 @@
           <t>Vek</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Pohlavie</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,11 +466,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,150 +476,15 @@
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jana</t>
+          <t>Priemer</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>SUM(B2:B12)</f>
+      <c r="B4">
+        <f>AVERAGE(B2:B3)</f>
         <v/>
       </c>
     </row>

--- a/analytikI/vystup.xlsx
+++ b/analytikI/vystup.xlsx
@@ -1,33 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ahoj" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,12 +47,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,16 +432,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Meno</t>
         </is>
@@ -453,11 +449,6 @@
       <c r="B1" t="inlineStr">
         <is>
           <t>Vek</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Pohlavie</t>
         </is>
       </c>
     </row>
@@ -470,11 +461,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -485,152 +471,6 @@
       <c r="B3" t="n">
         <v>25</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>25</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>25</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>25</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13">
-        <f>SUM(B2:B12)</f>
-        <v/>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analytikI/vystup.xlsx
+++ b/analytikI/vystup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NovyHark" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,14 +419,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Meno</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Vek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jana</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Boris</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4">
+        <f>SUM(B2:B3)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,33 +487,8 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Meno</t>
+          <t>Dáta</t>
         </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Vek</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jana</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Boris</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
